--- a/Data/Transitions/19571968Translation.xlsx
+++ b/Data/Transitions/19571968Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="667">
   <si>
     <t>id</t>
   </si>
@@ -460,7 +460,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -661,7 +661,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1754,9 +1754,6 @@
   </si>
   <si>
     <t>{237.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3995,7 +3992,7 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>580</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4006,7 +4003,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4017,7 +4014,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4204,7 +4201,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4215,7 +4212,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4259,7 +4256,7 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4270,7 +4267,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4314,7 +4311,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4325,7 +4322,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4413,7 +4410,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4424,7 +4421,7 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4545,7 +4542,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4567,7 +4564,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4589,7 +4586,7 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4611,7 +4608,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4732,7 +4729,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>580</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4776,7 +4773,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4787,7 +4784,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4809,7 +4806,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4864,7 +4861,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4930,7 +4927,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4985,7 +4982,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5084,7 +5081,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5150,7 +5147,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5194,7 +5191,7 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5216,7 +5213,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5227,7 +5224,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5238,7 +5235,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5381,7 +5378,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5425,7 +5422,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5436,7 +5433,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5524,7 +5521,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5535,7 +5532,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5612,7 +5609,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5700,7 +5697,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5733,7 +5730,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5755,7 +5752,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5788,7 +5785,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5810,7 +5807,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5832,7 +5829,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5854,7 +5851,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5909,7 +5906,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5942,7 +5939,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6063,7 +6060,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6074,7 +6071,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6118,7 +6115,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6140,7 +6137,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6239,7 +6236,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6261,7 +6258,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6349,7 +6346,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6448,7 +6445,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6459,7 +6456,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6470,7 +6467,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6481,7 +6478,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6569,7 +6566,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6635,7 +6632,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6646,7 +6643,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6690,7 +6687,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6767,7 +6764,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6866,7 +6863,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7174,7 +7171,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7229,7 +7226,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7251,7 +7248,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7262,7 +7259,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7273,7 +7270,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7306,7 +7303,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7328,7 +7325,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7339,7 +7336,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7350,7 +7347,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7383,7 +7380,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7515,7 +7512,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7570,7 +7567,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7603,7 +7600,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7647,7 +7644,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7669,7 +7666,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7724,7 +7721,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7768,7 +7765,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7779,7 +7776,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7790,7 +7787,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7834,7 +7831,7 @@
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7911,7 +7908,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7944,7 +7941,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7977,7 +7974,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8065,7 +8062,7 @@
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8087,7 +8084,7 @@
         <v>520</v>
       </c>
       <c r="C519" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -8109,7 +8106,7 @@
         <v>522</v>
       </c>
       <c r="C521" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -8120,7 +8117,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8142,7 +8139,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8164,7 +8161,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="527" spans="1:3">
